--- a/JMC_flight_arrives/flight_arrives_JMC_3.xlsx
+++ b/JMC_flight_arrives/flight_arrives_JMC_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\defaultuser0\OneDrive - Universidad Nacional de Colombia\beda\beda_1\IO2\02_queueing_theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC80878-B043-452E-BB6B-4FAF141E15D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07446D3-DA1F-418D-A8D1-91962C0E7934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{422CC713-71D4-4F77-B9A6-F07A28520F0E}"/>
+    <workbookView xWindow="-20610" yWindow="915" windowWidth="20730" windowHeight="11160" xr2:uid="{422CC713-71D4-4F77-B9A6-F07A28520F0E}"/>
   </bookViews>
   <sheets>
     <sheet name="hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="172">
   <si>
     <t>Avianca</t>
   </si>
@@ -74,6 +74,9 @@
     <t>Latam Airlines</t>
   </si>
   <si>
+    <t>LA4213</t>
+  </si>
+  <si>
     <t>SANTA MARTA</t>
   </si>
   <si>
@@ -83,18 +86,27 @@
     <t>P57331</t>
   </si>
   <si>
+    <t>LA4001</t>
+  </si>
+  <si>
     <t>AV8545</t>
   </si>
   <si>
     <t>BARRANQUILLA</t>
   </si>
   <si>
+    <t>LA4024</t>
+  </si>
+  <si>
     <t>CALI</t>
   </si>
   <si>
     <t>AV9252</t>
   </si>
   <si>
+    <t>LA4033</t>
+  </si>
+  <si>
     <t>CARTAGENA</t>
   </si>
   <si>
@@ -104,6 +116,9 @@
     <t>PEREIRA</t>
   </si>
   <si>
+    <t>LA4030</t>
+  </si>
+  <si>
     <t>JetSMART Chile</t>
   </si>
   <si>
@@ -134,6 +149,9 @@
     <t>AV9281</t>
   </si>
   <si>
+    <t>LA4036</t>
+  </si>
+  <si>
     <t>AV9354</t>
   </si>
   <si>
@@ -149,9 +167,15 @@
     <t>JA5431</t>
   </si>
   <si>
+    <t>LA4040</t>
+  </si>
+  <si>
     <t>Arajet</t>
   </si>
   <si>
+    <t>DM1003</t>
+  </si>
+  <si>
     <t>SANTIAGO DE LOS CABALLEROS</t>
   </si>
   <si>
@@ -164,15 +188,24 @@
     <t>AV9270</t>
   </si>
   <si>
+    <t>AV8448</t>
+  </si>
+  <si>
     <t>AV8555</t>
   </si>
   <si>
+    <t>LA4060</t>
+  </si>
+  <si>
     <t>JA5411</t>
   </si>
   <si>
     <t>AV9302</t>
   </si>
   <si>
+    <t>CM397</t>
+  </si>
+  <si>
     <t>LA4072</t>
   </si>
   <si>
@@ -185,6 +218,12 @@
     <t>AV8543</t>
   </si>
   <si>
+    <t>AV8517</t>
+  </si>
+  <si>
+    <t>RIOHACHA</t>
+  </si>
+  <si>
     <t>JA5413</t>
   </si>
   <si>
@@ -200,12 +239,21 @@
     <t>P57298</t>
   </si>
   <si>
+    <t>AV9464</t>
+  </si>
+  <si>
     <t>JetSMART Perú</t>
   </si>
   <si>
+    <t>JZ7752</t>
+  </si>
+  <si>
     <t>LIMA</t>
   </si>
   <si>
+    <t>P57409</t>
+  </si>
+  <si>
     <t>CANCÚN</t>
   </si>
   <si>
@@ -233,6 +281,9 @@
     <t>MONTERÍA</t>
   </si>
   <si>
+    <t>AV645</t>
+  </si>
+  <si>
     <t>SAN JOSÉ DE COSTA RICA</t>
   </si>
   <si>
@@ -245,12 +296,18 @@
     <t>AV9340</t>
   </si>
   <si>
+    <t>LA4103</t>
+  </si>
+  <si>
     <t>AV9344</t>
   </si>
   <si>
     <t>CM502</t>
   </si>
   <si>
+    <t>AV9717</t>
+  </si>
+  <si>
     <t>AV221</t>
   </si>
   <si>
@@ -263,6 +320,9 @@
     <t>JA5116</t>
   </si>
   <si>
+    <t>LA4112</t>
+  </si>
+  <si>
     <t>AV9511</t>
   </si>
   <si>
@@ -275,12 +335,24 @@
     <t>AV269</t>
   </si>
   <si>
+    <t>AV9561</t>
+  </si>
+  <si>
+    <t>LA4117</t>
+  </si>
+  <si>
+    <t>AV8573</t>
+  </si>
+  <si>
     <t>LA2392</t>
   </si>
   <si>
     <t>AV9310</t>
   </si>
   <si>
+    <t>LA4381</t>
+  </si>
+  <si>
     <t>AV9324</t>
   </si>
   <si>
@@ -290,30 +362,78 @@
     <t>CM156</t>
   </si>
   <si>
+    <t>AV9846</t>
+  </si>
+  <si>
+    <t>LA4140</t>
+  </si>
+  <si>
+    <t>P57611</t>
+  </si>
+  <si>
     <t>AV9328</t>
   </si>
   <si>
     <t>AV9829</t>
   </si>
   <si>
+    <t>LA4142</t>
+  </si>
+  <si>
     <t>AV9304</t>
   </si>
   <si>
+    <t>LA4144</t>
+  </si>
+  <si>
+    <t>AV8489</t>
+  </si>
+  <si>
+    <t>P57047</t>
+  </si>
+  <si>
     <t>PANAMÁ</t>
   </si>
   <si>
+    <t>JA5417</t>
+  </si>
+  <si>
     <t>AV9326</t>
   </si>
   <si>
+    <t>Air Europa</t>
+  </si>
+  <si>
+    <t>UX199</t>
+  </si>
+  <si>
     <t>MADRID</t>
   </si>
   <si>
     <t>AV9322</t>
   </si>
   <si>
+    <t>LA4151</t>
+  </si>
+  <si>
     <t>AV8534</t>
   </si>
   <si>
+    <t>LA4159</t>
+  </si>
+  <si>
+    <t>LA4158</t>
+  </si>
+  <si>
+    <t>JA5433</t>
+  </si>
+  <si>
+    <t>AV9563</t>
+  </si>
+  <si>
+    <t>AV8441</t>
+  </si>
+  <si>
     <t>AV8536</t>
   </si>
   <si>
@@ -323,18 +443,33 @@
     <t>CM208</t>
   </si>
   <si>
+    <t>P57276</t>
+  </si>
+  <si>
     <t>AV9308</t>
   </si>
   <si>
     <t>AA1129</t>
   </si>
   <si>
+    <t>LA4373</t>
+  </si>
+  <si>
     <t>AV9332</t>
   </si>
   <si>
+    <t>AV147</t>
+  </si>
+  <si>
     <t>JA5118</t>
   </si>
   <si>
+    <t>AV9234</t>
+  </si>
+  <si>
+    <t>LA4183</t>
+  </si>
+  <si>
     <t>AV9312</t>
   </si>
   <si>
@@ -347,18 +482,33 @@
     <t>P57605</t>
   </si>
   <si>
+    <t>AV8496</t>
+  </si>
+  <si>
     <t>ARMENIA</t>
   </si>
   <si>
+    <t>LA4199</t>
+  </si>
+  <si>
     <t>LA4194</t>
   </si>
   <si>
     <t>AV9250</t>
   </si>
   <si>
+    <t>LA4378</t>
+  </si>
+  <si>
+    <t>LA4193</t>
+  </si>
+  <si>
     <t>AA923</t>
   </si>
   <si>
+    <t>LA4195</t>
+  </si>
+  <si>
     <t>AV9259</t>
   </si>
   <si>
@@ -402,183 +552,6 @@
   </si>
   <si>
     <t>arrival_date</t>
-  </si>
-  <si>
-    <t>LA4010</t>
-  </si>
-  <si>
-    <t>AV9434</t>
-  </si>
-  <si>
-    <t>P57268</t>
-  </si>
-  <si>
-    <t>LA4027</t>
-  </si>
-  <si>
-    <t>LA4034</t>
-  </si>
-  <si>
-    <t>LA4045</t>
-  </si>
-  <si>
-    <t>LA4056</t>
-  </si>
-  <si>
-    <t>JA5120</t>
-  </si>
-  <si>
-    <t>AV8400</t>
-  </si>
-  <si>
-    <t>LA4069</t>
-  </si>
-  <si>
-    <t>LA4077</t>
-  </si>
-  <si>
-    <t>AV9382</t>
-  </si>
-  <si>
-    <t>LA4089</t>
-  </si>
-  <si>
-    <t>LA4057</t>
-  </si>
-  <si>
-    <t>AV9316</t>
-  </si>
-  <si>
-    <t>P57421</t>
-  </si>
-  <si>
-    <t>SANTO DOMINGO</t>
-  </si>
-  <si>
-    <t>P57453</t>
-  </si>
-  <si>
-    <t>ARUBA</t>
-  </si>
-  <si>
-    <t>JA820</t>
-  </si>
-  <si>
-    <t>SANTIAGO DE CHILE</t>
-  </si>
-  <si>
-    <t>LA4100</t>
-  </si>
-  <si>
-    <t>LA4131</t>
-  </si>
-  <si>
-    <t>LA4111</t>
-  </si>
-  <si>
-    <t>AV643</t>
-  </si>
-  <si>
-    <t>AV9393</t>
-  </si>
-  <si>
-    <t>LA4115</t>
-  </si>
-  <si>
-    <t>LA4124</t>
-  </si>
-  <si>
-    <t>P57437</t>
-  </si>
-  <si>
-    <t>LA4129</t>
-  </si>
-  <si>
-    <t>AV33</t>
-  </si>
-  <si>
-    <t>AV9363</t>
-  </si>
-  <si>
-    <t>LA4155</t>
-  </si>
-  <si>
-    <t>DM1001</t>
-  </si>
-  <si>
-    <t>LA4141</t>
-  </si>
-  <si>
-    <t>AV8566</t>
-  </si>
-  <si>
-    <t>AV267</t>
-  </si>
-  <si>
-    <t>SAN JUAN DE PUERTO RICO</t>
-  </si>
-  <si>
-    <t>JA5414</t>
-  </si>
-  <si>
-    <t>AV9237</t>
-  </si>
-  <si>
-    <t>LA4149</t>
-  </si>
-  <si>
-    <t>JZ7750</t>
-  </si>
-  <si>
-    <t>LA4161</t>
-  </si>
-  <si>
-    <t>JA5435</t>
-  </si>
-  <si>
-    <t>LA4244</t>
-  </si>
-  <si>
-    <t>AV8533</t>
-  </si>
-  <si>
-    <t>AV17</t>
-  </si>
-  <si>
-    <t>P57615</t>
-  </si>
-  <si>
-    <t>AV8433</t>
-  </si>
-  <si>
-    <t>AV8386</t>
-  </si>
-  <si>
-    <t>QUITO</t>
-  </si>
-  <si>
-    <t>LA4180</t>
-  </si>
-  <si>
-    <t>LA4185</t>
-  </si>
-  <si>
-    <t>LA4187</t>
-  </si>
-  <si>
-    <t>AV9509</t>
-  </si>
-  <si>
-    <t>AV9268</t>
-  </si>
-  <si>
-    <t>AV9286</t>
-  </si>
-  <si>
-    <t>P57049</t>
-  </si>
-  <si>
-    <t>LA4206</t>
   </si>
 </sst>
 </file>
@@ -951,222 +924,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE17ED4-B1EC-4DF5-B48F-13EB50DF928A}">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="E2" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="E3" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>0.21527777777777779</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="E4" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>0.22361111111111112</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
-        <v>0.24027777777777778</v>
+        <v>2.6388888888888889E-2</v>
       </c>
       <c r="E6" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>0.24513888888888888</v>
+        <v>0.18402777777777779</v>
       </c>
       <c r="E7" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>0.25138888888888888</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="E8" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
-        <v>0.26319444444444445</v>
+        <v>0.25763888888888886</v>
       </c>
       <c r="E9" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
-        <v>0.26805555555555555</v>
+        <v>0.26527777777777778</v>
       </c>
       <c r="E10" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>0.27013888888888887</v>
+        <v>0.27708333333333335</v>
       </c>
       <c r="E11" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
-        <v>0.29583333333333334</v>
+        <v>0.28819444444444442</v>
       </c>
       <c r="E12" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1180,10 +1151,10 @@
         <v>25</v>
       </c>
       <c r="D13" s="1">
-        <v>0.30555555555555558</v>
+        <v>0.30486111111111114</v>
       </c>
       <c r="E13" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1191,33 +1162,33 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>0.30763888888888891</v>
+        <v>0.30555555555555558</v>
       </c>
       <c r="E14" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>0.33055555555555555</v>
+        <v>0.31041666666666667</v>
       </c>
       <c r="E15" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1225,220 +1196,220 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
-        <v>0.33819444444444446</v>
+        <v>0.31736111111111109</v>
       </c>
       <c r="E16" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.31805555555555554</v>
       </c>
       <c r="E17" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>0.35347222222222224</v>
+        <v>0.31874999999999998</v>
       </c>
       <c r="E18" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1">
-        <v>0.35625000000000001</v>
+        <v>0.34305555555555556</v>
       </c>
       <c r="E19" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1">
-        <v>0.35902777777777778</v>
+        <v>0.34861111111111109</v>
       </c>
       <c r="E20" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>0.36180555555555555</v>
+        <v>0.35</v>
       </c>
       <c r="E21" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>0.375</v>
+        <v>0.35486111111111113</v>
       </c>
       <c r="E22" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1">
-        <v>0.37638888888888888</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="E23" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1">
-        <v>0.38333333333333336</v>
+        <v>0.37222222222222223</v>
       </c>
       <c r="E24" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>0.38680555555555557</v>
+        <v>0.38263888888888886</v>
       </c>
       <c r="E25" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1">
-        <v>0.3923611111111111</v>
+        <v>0.39513888888888887</v>
       </c>
       <c r="E26" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>0.40625</v>
+        <v>0.40277777777777779</v>
       </c>
       <c r="E27" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1">
-        <v>0.41111111111111109</v>
+        <v>0.40416666666666667</v>
       </c>
       <c r="E28" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1446,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1455,24 +1426,24 @@
         <v>0.41180555555555554</v>
       </c>
       <c r="E29" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="1">
-        <v>0.4236111111111111</v>
+        <v>0.41597222222222224</v>
       </c>
       <c r="E30" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1480,16 +1451,16 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
-        <v>0.42499999999999999</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="E31" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1497,16 +1468,16 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1">
         <v>0.42638888888888887</v>
       </c>
       <c r="E32" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1514,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D33" s="1">
-        <v>0.44305555555555554</v>
+        <v>0.42777777777777776</v>
       </c>
       <c r="E33" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1531,118 +1502,118 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="1">
-        <v>0.44722222222222224</v>
+        <v>0.4284722222222222</v>
       </c>
       <c r="E34" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D35" s="1">
-        <v>0.46736111111111112</v>
+        <v>0.44583333333333336</v>
       </c>
       <c r="E35" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="1">
-        <v>0.46805555555555556</v>
+        <v>0.46111111111111114</v>
       </c>
       <c r="E36" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0.46875</v>
+        <v>0.46319444444444446</v>
       </c>
       <c r="E37" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
-        <v>0.47083333333333333</v>
+        <v>0.46597222222222223</v>
       </c>
       <c r="E38" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D39" s="1">
-        <v>0.47222222222222221</v>
+        <v>0.46875</v>
       </c>
       <c r="E39" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D40" s="1">
-        <v>0.48680555555555555</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="E40" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1650,203 +1621,203 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D41" s="1">
-        <v>0.49236111111111114</v>
+        <v>0.47708333333333336</v>
       </c>
       <c r="E41" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D42" s="1">
-        <v>0.49444444444444446</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="E42" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D43" s="1">
-        <v>0.5</v>
+        <v>0.49444444444444446</v>
       </c>
       <c r="E43" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1">
-        <v>0.51041666666666663</v>
+        <v>0.50972222222222219</v>
       </c>
       <c r="E44" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1">
-        <v>0.51249999999999996</v>
+        <v>0.50972222222222219</v>
       </c>
       <c r="E45" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D46" s="1">
-        <v>0.52152777777777781</v>
+        <v>0.53055555555555556</v>
       </c>
       <c r="E46" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D47" s="1">
-        <v>0.52916666666666667</v>
+        <v>0.54513888888888884</v>
       </c>
       <c r="E47" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D48" s="1">
-        <v>0.53472222222222221</v>
+        <v>0.54652777777777772</v>
       </c>
       <c r="E48" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D49" s="1">
-        <v>0.54652777777777772</v>
+        <v>0.54722222222222228</v>
       </c>
       <c r="E49" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="D50" s="1">
-        <v>0.54861111111111116</v>
+        <v>0.55138888888888893</v>
       </c>
       <c r="E50" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1">
-        <v>0.55069444444444449</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="E51" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D52" s="1">
-        <v>0.55486111111111114</v>
+        <v>0.55833333333333335</v>
       </c>
       <c r="E52" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1854,16 +1825,16 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D53" s="1">
-        <v>0.55833333333333335</v>
+        <v>0.5625</v>
       </c>
       <c r="E53" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1871,50 +1842,50 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D54" s="1">
         <v>0.56666666666666665</v>
       </c>
       <c r="E54" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="1">
-        <v>0.5756944444444444</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="E55" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="1">
-        <v>0.57708333333333328</v>
+        <v>0.5756944444444444</v>
       </c>
       <c r="E56" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1922,16 +1893,16 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D57" s="1">
-        <v>0.58263888888888893</v>
+        <v>0.57986111111111116</v>
       </c>
       <c r="E57" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1939,33 +1910,33 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D58" s="1">
         <v>0.59166666666666667</v>
       </c>
       <c r="E58" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D59" s="1">
         <v>0.59236111111111112</v>
       </c>
       <c r="E59" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1973,16 +1944,16 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="D60" s="1">
-        <v>0.60069444444444442</v>
+        <v>0.59444444444444444</v>
       </c>
       <c r="E60" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1990,84 +1961,84 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1">
-        <v>0.6020833333333333</v>
+        <v>0.60069444444444442</v>
       </c>
       <c r="E61" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="1">
-        <v>0.60555555555555551</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="E62" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="1">
-        <v>0.61111111111111116</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="E63" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D64" s="1">
-        <v>0.61111111111111116</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="E64" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="D65" s="1">
-        <v>0.61458333333333337</v>
+        <v>0.62013888888888891</v>
       </c>
       <c r="E65" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2075,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D66" s="1">
-        <v>0.61527777777777781</v>
+        <v>0.6430555555555556</v>
       </c>
       <c r="E66" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2092,50 +2063,50 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D67" s="1">
-        <v>0.62013888888888891</v>
+        <v>0.64513888888888893</v>
       </c>
       <c r="E67" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D68" s="1">
-        <v>0.64236111111111116</v>
+        <v>0.65138888888888891</v>
       </c>
       <c r="E68" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
       </c>
       <c r="D69" s="1">
-        <v>0.6430555555555556</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="E69" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2143,16 +2114,16 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D70" s="1">
-        <v>0.64513888888888893</v>
+        <v>0.65416666666666667</v>
       </c>
       <c r="E70" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2160,33 +2131,33 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D71" s="1">
-        <v>0.65625</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E71" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="D72" s="1">
-        <v>0.67013888888888884</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="E72" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2194,16 +2165,16 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D73" s="1">
-        <v>0.67361111111111116</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="E73" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2211,50 +2182,50 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
       </c>
       <c r="D74" s="1">
-        <v>0.68888888888888888</v>
+        <v>0.70208333333333328</v>
       </c>
       <c r="E74" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
       </c>
       <c r="D75" s="1">
-        <v>0.69513888888888886</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="E75" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D76" s="1">
-        <v>0.69791666666666663</v>
+        <v>0.70972222222222225</v>
       </c>
       <c r="E76" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2262,101 +2233,101 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D77" s="1">
-        <v>0.70208333333333328</v>
+        <v>0.72152777777777777</v>
       </c>
       <c r="E77" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D78" s="1">
-        <v>0.70625000000000004</v>
+        <v>0.72291666666666665</v>
       </c>
       <c r="E78" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" t="s">
         <v>13</v>
       </c>
-      <c r="B79" t="s">
-        <v>82</v>
-      </c>
-      <c r="C79" t="s">
-        <v>2</v>
-      </c>
       <c r="D79" s="1">
-        <v>0.70694444444444449</v>
+        <v>0.7319444444444444</v>
       </c>
       <c r="E79" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D80" s="1">
-        <v>0.70972222222222225</v>
+        <v>0.73888888888888893</v>
       </c>
       <c r="E80" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D81" s="1">
-        <v>0.73055555555555551</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="E81" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="C82" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E82" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2364,16 +2335,16 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="1">
-        <v>0.73888888888888893</v>
+        <v>0.74791666666666667</v>
       </c>
       <c r="E83" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -2381,16 +2352,16 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
       </c>
       <c r="D84" s="1">
-        <v>0.74027777777777781</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="E84" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -2398,50 +2369,50 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="C85" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D85" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="E85" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="D86" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.75763888888888886</v>
       </c>
       <c r="E86" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C87" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D87" s="1">
-        <v>0.74791666666666667</v>
+        <v>0.76180555555555551</v>
       </c>
       <c r="E87" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2449,33 +2420,33 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C88" t="s">
-        <v>159</v>
+        <v>2</v>
       </c>
       <c r="D88" s="1">
-        <v>0.75</v>
+        <v>0.76597222222222228</v>
       </c>
       <c r="E88" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="B89" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="D89" s="1">
-        <v>0.75138888888888888</v>
+        <v>0.76736111111111116</v>
       </c>
       <c r="E89" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2483,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D90" s="1">
-        <v>0.75347222222222221</v>
+        <v>0.77430555555555558</v>
       </c>
       <c r="E90" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2500,16 +2471,16 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
       </c>
       <c r="D91" s="1">
-        <v>0.76111111111111107</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="E91" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2517,67 +2488,67 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
       </c>
       <c r="D92" s="1">
-        <v>0.76597222222222228</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="E92" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
       </c>
       <c r="D93" s="1">
-        <v>0.77430555555555558</v>
+        <v>0.80694444444444446</v>
       </c>
       <c r="E93" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C94" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D94" s="1">
-        <v>0.77777777777777779</v>
+        <v>0.80763888888888891</v>
       </c>
       <c r="E94" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B95" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="C95" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D95" s="1">
-        <v>0.78819444444444442</v>
+        <v>0.80833333333333335</v>
       </c>
       <c r="E95" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2585,101 +2556,101 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C96" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D96" s="1">
-        <v>0.79861111111111116</v>
+        <v>0.8125</v>
       </c>
       <c r="E96" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C97" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" s="1">
-        <v>0.80694444444444446</v>
+        <v>0.81527777777777777</v>
       </c>
       <c r="E97" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D98" s="1">
-        <v>0.80833333333333335</v>
+        <v>0.82777777777777772</v>
       </c>
       <c r="E98" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="C99" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D99" s="1">
-        <v>0.81388888888888888</v>
+        <v>0.82916666666666672</v>
       </c>
       <c r="E99" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B100" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D100" s="1">
-        <v>0.81736111111111109</v>
+        <v>0.8305555555555556</v>
       </c>
       <c r="E100" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
       </c>
       <c r="D101" s="1">
-        <v>0.82777777777777772</v>
+        <v>0.83194444444444449</v>
       </c>
       <c r="E101" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -2687,67 +2658,67 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D102" s="1">
-        <v>0.82916666666666672</v>
+        <v>0.84236111111111112</v>
       </c>
       <c r="E102" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B103" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D103" s="1">
-        <v>0.8305555555555556</v>
+        <v>0.84375</v>
       </c>
       <c r="E103" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
       </c>
       <c r="D104" s="1">
-        <v>0.84236111111111112</v>
+        <v>0.85277777777777775</v>
       </c>
       <c r="E104" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="C105" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D105" s="1">
-        <v>0.84375</v>
+        <v>0.8618055555555556</v>
       </c>
       <c r="E105" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2755,33 +2726,33 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="C106" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D106" s="1">
-        <v>0.84375</v>
+        <v>0.86458333333333337</v>
       </c>
       <c r="E106" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B107" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D107" s="1">
-        <v>0.85555555555555551</v>
+        <v>0.87222222222222223</v>
       </c>
       <c r="E107" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2789,33 +2760,33 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="C108" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D108" s="1">
-        <v>0.8618055555555556</v>
+        <v>0.87222222222222223</v>
       </c>
       <c r="E108" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D109" s="1">
-        <v>0.86527777777777781</v>
+        <v>0.87430555555555556</v>
       </c>
       <c r="E109" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2823,67 +2794,67 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D110" s="1">
-        <v>0.86527777777777781</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="E110" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="C111" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="D111" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.88611111111111107</v>
       </c>
       <c r="E111" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D112" s="1">
-        <v>0.86944444444444446</v>
+        <v>0.89236111111111116</v>
       </c>
       <c r="E112" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D113" s="1">
-        <v>0.87708333333333333</v>
+        <v>0.89722222222222225</v>
       </c>
       <c r="E113" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2891,16 +2862,16 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="C114" t="s">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="D114" s="1">
-        <v>0.8833333333333333</v>
+        <v>0.89930555555555558</v>
       </c>
       <c r="E114" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2908,16 +2879,16 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C115" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D115" s="1">
-        <v>0.88611111111111107</v>
+        <v>0.9</v>
       </c>
       <c r="E115" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -2925,16 +2896,16 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C116" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D116" s="1">
-        <v>0.88888888888888884</v>
+        <v>0.90347222222222223</v>
       </c>
       <c r="E116" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -2942,84 +2913,84 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="C117" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D117" s="1">
-        <v>0.89236111111111116</v>
+        <v>0.90902777777777777</v>
       </c>
       <c r="E117" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C118" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D118" s="1">
-        <v>0.89583333333333337</v>
+        <v>0.91597222222222219</v>
       </c>
       <c r="E118" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C119" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D119" s="1">
-        <v>0.89652777777777781</v>
+        <v>0.92569444444444449</v>
       </c>
       <c r="E119" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B120" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D120" s="1">
-        <v>0.89722222222222225</v>
+        <v>0.93055555555555558</v>
       </c>
       <c r="E120" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
+        <v>156</v>
+      </c>
+      <c r="C121" t="s">
         <v>13</v>
       </c>
-      <c r="B121" t="s">
-        <v>179</v>
-      </c>
-      <c r="C121" t="s">
-        <v>87</v>
-      </c>
       <c r="D121" s="1">
-        <v>0.90138888888888891</v>
+        <v>0.93194444444444446</v>
       </c>
       <c r="E121" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -3027,50 +2998,50 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="C122" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D122" s="1">
-        <v>0.90902777777777777</v>
+        <v>0.94027777777777777</v>
       </c>
       <c r="E122" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B123" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="C123" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D123" s="1">
-        <v>0.91736111111111107</v>
+        <v>0.95208333333333328</v>
       </c>
       <c r="E123" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="C124" t="s">
         <v>2</v>
       </c>
       <c r="D124" s="1">
-        <v>0.92083333333333328</v>
+        <v>0.95902777777777781</v>
       </c>
       <c r="E124" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -3078,50 +3049,50 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D125" s="1">
-        <v>0.94027777777777777</v>
+        <v>0.96388888888888891</v>
       </c>
       <c r="E125" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D126" s="1">
-        <v>0.94444444444444442</v>
+        <v>0.96944444444444444</v>
       </c>
       <c r="E126" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D127" s="1">
-        <v>0.95208333333333328</v>
+        <v>0.97638888888888886</v>
       </c>
       <c r="E127" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -3129,16 +3100,16 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="C128" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D128" s="1">
-        <v>0.95902777777777781</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="E128" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -3146,33 +3117,33 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="C129" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D129" s="1">
-        <v>0.96388888888888891</v>
+        <v>0.98124999999999996</v>
       </c>
       <c r="E129" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C130" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D130" s="1">
-        <v>0.96944444444444444</v>
+        <v>0.98333333333333328</v>
       </c>
       <c r="E130" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -3180,16 +3151,16 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
       </c>
       <c r="D131" s="1">
-        <v>0.97638888888888886</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="E131" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -3197,101 +3168,16 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="C132" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D132" s="1">
-        <v>0.98124999999999996</v>
+        <v>0.98888888888888893</v>
       </c>
       <c r="E132" s="2">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" t="s">
-        <v>4</v>
-      </c>
-      <c r="D133" s="1">
-        <v>0.98263888888888884</v>
-      </c>
-      <c r="E133" s="2">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>0</v>
-      </c>
-      <c r="B134" t="s">
-        <v>115</v>
-      </c>
-      <c r="C134" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="1">
-        <v>0.98333333333333328</v>
-      </c>
-      <c r="E134" s="2">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>59</v>
-      </c>
-      <c r="B135" t="s">
-        <v>106</v>
-      </c>
-      <c r="C135" t="s">
-        <v>61</v>
-      </c>
-      <c r="D135" s="1">
-        <v>0.98611111111111116</v>
-      </c>
-      <c r="E135" s="2">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1</v>
-      </c>
-      <c r="C136" t="s">
-        <v>2</v>
-      </c>
-      <c r="D136" s="1">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="E136" s="2">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" t="s">
-        <v>116</v>
-      </c>
-      <c r="C137" t="s">
-        <v>19</v>
-      </c>
-      <c r="D137" s="1">
-        <v>0.98888888888888893</v>
-      </c>
-      <c r="E137" s="2">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
   </sheetData>
